--- a/data/naft_data_1.xlsx
+++ b/data/naft_data_1.xlsx
@@ -83,9 +83,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -188,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,10 +221,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -306,14 +301,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="U125" activeCellId="0" sqref="U125"/>
+      <selection pane="bottomLeft" activeCell="A101" activeCellId="0" sqref="A101"/>
+      <selection pane="bottomRight" activeCell="C117" activeCellId="0" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="18.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,9 +329,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="14.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="15.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="25.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="16.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,118 +2855,321 @@
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-      <c r="M121" s="9"/>
-      <c r="N121" s="9"/>
-      <c r="O121" s="9"/>
-      <c r="P121" s="9"/>
-      <c r="Q121" s="9"/>
-      <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-    </row>
-    <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-      <c r="M122" s="9"/>
-      <c r="N122" s="9"/>
-      <c r="O122" s="9"/>
-      <c r="P122" s="9"/>
-      <c r="Q122" s="9"/>
-      <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-      <c r="M123" s="9"/>
-      <c r="N123" s="9"/>
-      <c r="O123" s="9"/>
-      <c r="P123" s="9"/>
-      <c r="Q123" s="9"/>
-      <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-    </row>
-    <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-      <c r="M124" s="9"/>
-      <c r="N124" s="9"/>
-      <c r="O124" s="9"/>
-      <c r="P124" s="9"/>
-      <c r="Q124" s="9"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0"/>
+      <c r="B113" s="0"/>
+      <c r="C113" s="0"/>
+      <c r="D113" s="0"/>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
+      <c r="H113" s="0"/>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0"/>
+      <c r="L113" s="0"/>
+      <c r="M113" s="0"/>
+      <c r="N113" s="0"/>
+      <c r="O113" s="0"/>
+      <c r="P113" s="0"/>
+      <c r="Q113" s="0"/>
+      <c r="R113" s="0"/>
+      <c r="S113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0"/>
+      <c r="B114" s="0"/>
+      <c r="C114" s="0"/>
+      <c r="D114" s="0"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
+      <c r="H114" s="0"/>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+      <c r="K114" s="0"/>
+      <c r="L114" s="0"/>
+      <c r="M114" s="0"/>
+      <c r="N114" s="0"/>
+      <c r="O114" s="0"/>
+      <c r="P114" s="0"/>
+      <c r="Q114" s="0"/>
+      <c r="R114" s="0"/>
+      <c r="S114" s="0"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0"/>
+      <c r="B115" s="0"/>
+      <c r="C115" s="0"/>
+      <c r="D115" s="0"/>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
+      <c r="H115" s="0"/>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
+      <c r="K115" s="0"/>
+      <c r="L115" s="0"/>
+      <c r="M115" s="0"/>
+      <c r="N115" s="0"/>
+      <c r="O115" s="0"/>
+      <c r="P115" s="0"/>
+      <c r="Q115" s="0"/>
+      <c r="R115" s="0"/>
+      <c r="S115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0"/>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="D116" s="0"/>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
+      <c r="H116" s="0"/>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+      <c r="K116" s="0"/>
+      <c r="L116" s="0"/>
+      <c r="M116" s="0"/>
+      <c r="N116" s="0"/>
+      <c r="O116" s="0"/>
+      <c r="P116" s="0"/>
+      <c r="Q116" s="0"/>
+      <c r="R116" s="0"/>
+      <c r="S116" s="0"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0"/>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
+      <c r="L117" s="0"/>
+      <c r="M117" s="0"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
+      <c r="Q117" s="0"/>
+      <c r="R117" s="0"/>
+      <c r="S117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0"/>
+      <c r="B118" s="0"/>
+      <c r="C118" s="0"/>
+      <c r="D118" s="0"/>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
+      <c r="H118" s="0"/>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
+      <c r="K118" s="0"/>
+      <c r="L118" s="0"/>
+      <c r="M118" s="0"/>
+      <c r="N118" s="0"/>
+      <c r="O118" s="0"/>
+      <c r="P118" s="0"/>
+      <c r="Q118" s="0"/>
+      <c r="R118" s="0"/>
+      <c r="S118" s="0"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0"/>
+      <c r="B119" s="0"/>
+      <c r="C119" s="0"/>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="0"/>
+      <c r="I119" s="0"/>
+      <c r="J119" s="0"/>
+      <c r="K119" s="0"/>
+      <c r="L119" s="0"/>
+      <c r="M119" s="0"/>
+      <c r="N119" s="0"/>
+      <c r="O119" s="0"/>
+      <c r="P119" s="0"/>
+      <c r="Q119" s="0"/>
+      <c r="R119" s="0"/>
+      <c r="S119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0"/>
+      <c r="B120" s="0"/>
+      <c r="C120" s="0"/>
+      <c r="D120" s="0"/>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
+      <c r="H120" s="0"/>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
+      <c r="K120" s="0"/>
+      <c r="L120" s="0"/>
+      <c r="M120" s="0"/>
+      <c r="N120" s="0"/>
+      <c r="O120" s="0"/>
+      <c r="P120" s="0"/>
+      <c r="Q120" s="0"/>
+      <c r="R120" s="0"/>
+      <c r="S120" s="0"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0"/>
+      <c r="B121" s="0"/>
+      <c r="C121" s="0"/>
+      <c r="D121" s="0"/>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+      <c r="G121" s="0"/>
+      <c r="H121" s="0"/>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
+      <c r="K121" s="0"/>
+      <c r="L121" s="0"/>
+      <c r="M121" s="0"/>
+      <c r="N121" s="0"/>
+      <c r="O121" s="0"/>
+      <c r="P121" s="0"/>
+      <c r="Q121" s="0"/>
+      <c r="R121" s="0"/>
+      <c r="S121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0"/>
+      <c r="B122" s="0"/>
+      <c r="C122" s="0"/>
+      <c r="D122" s="0"/>
+      <c r="E122" s="0"/>
+      <c r="F122" s="0"/>
+      <c r="G122" s="0"/>
+      <c r="H122" s="0"/>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
+      <c r="K122" s="0"/>
+      <c r="L122" s="0"/>
+      <c r="M122" s="0"/>
+      <c r="N122" s="0"/>
+      <c r="O122" s="0"/>
+      <c r="P122" s="0"/>
+      <c r="Q122" s="0"/>
+      <c r="R122" s="0"/>
+      <c r="S122" s="0"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0"/>
+      <c r="B123" s="0"/>
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
+      <c r="H123" s="0"/>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
+      <c r="L123" s="0"/>
+      <c r="M123" s="0"/>
+      <c r="N123" s="0"/>
+      <c r="O123" s="0"/>
+      <c r="P123" s="0"/>
+      <c r="Q123" s="0"/>
+      <c r="R123" s="0"/>
+      <c r="S123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0"/>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="0"/>
+      <c r="N124" s="0"/>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
+      <c r="Q124" s="0"/>
+      <c r="R124" s="0"/>
+      <c r="S124" s="0"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0"/>
+      <c r="B125" s="0"/>
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
+      <c r="H125" s="0"/>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0"/>
+      <c r="L125" s="0"/>
+      <c r="M125" s="0"/>
+      <c r="N125" s="0"/>
+      <c r="O125" s="0"/>
+      <c r="P125" s="0"/>
+      <c r="Q125" s="0"/>
+      <c r="R125" s="0"/>
+      <c r="S125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0"/>
+      <c r="B126" s="0"/>
+      <c r="C126" s="0"/>
+      <c r="D126" s="0"/>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+      <c r="G126" s="0"/>
+      <c r="H126" s="0"/>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="0"/>
+      <c r="L126" s="0"/>
+      <c r="M126" s="0"/>
+      <c r="N126" s="0"/>
+      <c r="O126" s="0"/>
+      <c r="P126" s="0"/>
+      <c r="Q126" s="0"/>
+      <c r="R126" s="0"/>
+      <c r="S126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0"/>
+      <c r="B127" s="0"/>
+      <c r="C127" s="0"/>
+      <c r="D127" s="0"/>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
+      <c r="H127" s="0"/>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
+      <c r="L127" s="0"/>
+      <c r="M127" s="0"/>
+      <c r="N127" s="0"/>
+      <c r="O127" s="0"/>
+      <c r="P127" s="0"/>
+      <c r="Q127" s="0"/>
+      <c r="R127" s="0"/>
+      <c r="S127" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
